--- a/data/evaluation/evaluation_South_Autumn_Grapes.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Grapes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2123.58059397897</v>
+        <v>2108.922171979639</v>
       </c>
       <c r="C4" t="n">
-        <v>8058429.40308382</v>
+        <v>7870256.473151153</v>
       </c>
       <c r="D4" t="n">
-        <v>2838.737290254915</v>
+        <v>2805.397738851151</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2576233095087856</v>
+        <v>0.2749585978107455</v>
       </c>
     </row>
     <row r="5">
